--- a/IPC2024_base2010/sinrecodificar_2_2024.xlsx
+++ b/IPC2024_base2010/sinrecodificar_2_2024.xlsx
@@ -1303,7 +1303,7 @@
     <t>Cortadora de cabello</t>
   </si>
   <si>
-    <t>Pupusas y tuyuyos</t>
+    <t>Pupusas y Tayuyos</t>
   </si>
   <si>
     <t>Combo individual de Hot dog (incluye gaseosa, fresco o café)</t>

--- a/IPC2024_base2010/sinrecodificar_2_2024.xlsx
+++ b/IPC2024_base2010/sinrecodificar_2_2024.xlsx
@@ -1264,7 +1264,7 @@
     <t>Remplazo de batería de celular</t>
   </si>
   <si>
-    <t>Compa de aves</t>
+    <t>Compra de aves</t>
   </si>
   <si>
     <t>Traje tradicional para mujeres (mayores de 12 años), incluye güipil y corte</t>
